--- a/data/trans_orig/Q5415-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5415-Edad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6770</v>
+        <v>6462</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006474519793227267</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02313750325347446</v>
+        <v>0.02208482747505567</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -765,19 +765,19 @@
         <v>9223</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4675</v>
+        <v>4392</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16808</v>
+        <v>16008</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02689318605154066</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01363381343709858</v>
+        <v>0.01280648255763436</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04901376726334029</v>
+        <v>0.0466792438923648</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -786,19 +786,19 @@
         <v>11117</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6411</v>
+        <v>6287</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19576</v>
+        <v>19590</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01749272211192071</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01008833042383329</v>
+        <v>0.009892145726624949</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03080328632602219</v>
+        <v>0.03082596086806813</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>9163</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4565</v>
+        <v>4719</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15278</v>
+        <v>16901</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03131840903903971</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01560208369560304</v>
+        <v>0.01612856534320622</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05221933421020394</v>
+        <v>0.05776428266978352</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -836,19 +836,19 @@
         <v>13937</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8377</v>
+        <v>8114</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23160</v>
+        <v>22935</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04064088216120181</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02442633809620779</v>
+        <v>0.02365961610204962</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0675338589582765</v>
+        <v>0.06687786538068748</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>25</v>
@@ -857,19 +857,19 @@
         <v>23100</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>15528</v>
+        <v>15774</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>33798</v>
+        <v>33764</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03634894794256593</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02443394791631105</v>
+        <v>0.02482076865659565</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0531819494621204</v>
+        <v>0.05312767718053751</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>281525</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>274116</v>
+        <v>272706</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>286887</v>
+        <v>286195</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9622070711677331</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9368834746350521</v>
+        <v>0.9320644816093757</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9805330488582866</v>
+        <v>0.9781679084511355</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>346</v>
@@ -907,19 +907,19 @@
         <v>319774</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>309452</v>
+        <v>309734</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>327689</v>
+        <v>327904</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9324659317872576</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.90236696243047</v>
+        <v>0.9031894408198259</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9555465093841101</v>
+        <v>0.9561734525308628</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>637</v>
@@ -928,19 +928,19 @@
         <v>601300</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>589289</v>
+        <v>587630</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>610763</v>
+        <v>610442</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9461583299455133</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9272596435701117</v>
+        <v>0.92464836835745</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9610488998516606</v>
+        <v>0.9605431947044665</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>5449</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2511</v>
+        <v>2571</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11900</v>
+        <v>11122</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02596291088210427</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01196201816866342</v>
+        <v>0.01225002824083551</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05669600048468469</v>
+        <v>0.05299068997827656</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>20</v>
@@ -1053,19 +1053,19 @@
         <v>22031</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13857</v>
+        <v>13761</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>33689</v>
+        <v>32729</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06597870911770989</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04150059992445357</v>
+        <v>0.04121195852677397</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1008928146258212</v>
+        <v>0.09801808069211373</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>26</v>
@@ -1074,19 +1074,19 @@
         <v>27480</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>18227</v>
+        <v>17520</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>39005</v>
+        <v>38875</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0505341061977041</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03351864109950412</v>
+        <v>0.03221761640278063</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07172863226280751</v>
+        <v>0.07148892183685404</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>21140</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13393</v>
+        <v>13605</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>29963</v>
+        <v>30538</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1007214188244166</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06381260713912007</v>
+        <v>0.06482146768294665</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1427623300526293</v>
+        <v>0.1455021767341303</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>35</v>
@@ -1124,19 +1124,19 @@
         <v>40288</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>29193</v>
+        <v>28650</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>54191</v>
+        <v>53259</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1206563294989632</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08742817970985904</v>
+        <v>0.08580085316456296</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1622930929120059</v>
+        <v>0.1595032313725037</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>58</v>
@@ -1145,19 +1145,19 @@
         <v>61428</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>47731</v>
+        <v>47862</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>77870</v>
+        <v>78514</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1129621988508282</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08777362385565678</v>
+        <v>0.08801587066738656</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1431976060101733</v>
+        <v>0.1443824794565843</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>183294</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>173239</v>
+        <v>172821</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>191656</v>
+        <v>191374</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8733156702934791</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8254097448243348</v>
+        <v>0.8234155192702503</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9131586149822472</v>
+        <v>0.9118143109207563</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>235</v>
@@ -1195,19 +1195,19 @@
         <v>271589</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>256826</v>
+        <v>256698</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>285836</v>
+        <v>285854</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8133649613833269</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7691527925395286</v>
+        <v>0.7687683825492945</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8560330901835311</v>
+        <v>0.8560864195046958</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>426</v>
@@ -1216,19 +1216,19 @@
         <v>454883</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>436458</v>
+        <v>434642</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>471720</v>
+        <v>470556</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8365036949514677</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8026212844169763</v>
+        <v>0.7992812450809477</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8674652145629648</v>
+        <v>0.8653258957351886</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>7344</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2856</v>
+        <v>3512</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14771</v>
+        <v>13499</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01461493619098414</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.005683176629207141</v>
+        <v>0.006990232245534049</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02939722743494017</v>
+        <v>0.02686600697305869</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>30</v>
@@ -1341,19 +1341,19 @@
         <v>31253</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>20943</v>
+        <v>20993</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>44553</v>
+        <v>43463</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04617533731179114</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03094195604695566</v>
+        <v>0.03101566690937876</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06582499424585062</v>
+        <v>0.06421435391764306</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>38</v>
@@ -1362,19 +1362,19 @@
         <v>38597</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>27882</v>
+        <v>27584</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>53861</v>
+        <v>52078</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0327284441877316</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02364271731298364</v>
+        <v>0.02338981284633043</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04567174519857223</v>
+        <v>0.04415980659733689</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>30303</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21130</v>
+        <v>22376</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40417</v>
+        <v>42056</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06030845733671672</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04205260445069006</v>
+        <v>0.04453212912544078</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0804378692588739</v>
+        <v>0.08369858104298319</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>50</v>
@@ -1412,19 +1412,19 @@
         <v>54225</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>41400</v>
+        <v>41935</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>69148</v>
+        <v>71939</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08011508738320543</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06116622583955018</v>
+        <v>0.06195647416248223</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1021634206189723</v>
+        <v>0.1062863539250895</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>83</v>
@@ -1433,19 +1433,19 @@
         <v>84528</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>68025</v>
+        <v>67625</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>103462</v>
+        <v>102420</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07167610600386769</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05768212417657359</v>
+        <v>0.05734327737280949</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08773091993365999</v>
+        <v>0.08684753945659623</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>464820</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>453051</v>
+        <v>451397</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>474824</v>
+        <v>473541</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9250766064722992</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9016555767652056</v>
+        <v>0.8983638754223793</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9449868527832386</v>
+        <v>0.9424334988480441</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>581</v>
@@ -1483,19 +1483,19 @@
         <v>591363</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>572520</v>
+        <v>571277</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>608416</v>
+        <v>606747</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8737095753050035</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8458693810000837</v>
+        <v>0.8440332120485716</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8989041520112391</v>
+        <v>0.8964377561869297</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1063</v>
@@ -1504,19 +1504,19 @@
         <v>1056183</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1032622</v>
+        <v>1033966</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1075552</v>
+        <v>1076477</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8955954498084007</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8756170014015632</v>
+        <v>0.8767565436789442</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9120192589813941</v>
+        <v>0.9128040430903819</v>
       </c>
     </row>
     <row r="15">
@@ -1846,19 +1846,19 @@
         <v>8111</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3065</v>
+        <v>3940</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15006</v>
+        <v>15505</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02618219266100062</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009892393454121188</v>
+        <v>0.01271817747390199</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04844025368929857</v>
+        <v>0.05005073366578818</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -1867,19 +1867,19 @@
         <v>10542</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4898</v>
+        <v>4952</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19464</v>
+        <v>18520</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02978081114133249</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01383616553086951</v>
+        <v>0.01398980180808731</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0549830545836007</v>
+        <v>0.05231805880625506</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -1888,19 +1888,19 @@
         <v>18653</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11492</v>
+        <v>11630</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29113</v>
+        <v>28142</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02810134111289558</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01731295478976285</v>
+        <v>0.01752092154089381</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04385854363412955</v>
+        <v>0.04239634234232254</v>
       </c>
     </row>
     <row r="5">
@@ -1917,19 +1917,19 @@
         <v>6983</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2986</v>
+        <v>2955</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13597</v>
+        <v>14042</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02254165721412809</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.009640482768619466</v>
+        <v>0.009538924676917599</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04389271934546608</v>
+        <v>0.04532710189760542</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -1938,19 +1938,19 @@
         <v>15880</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9139</v>
+        <v>9186</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25166</v>
+        <v>26112</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04486032006996683</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02581716099368221</v>
+        <v>0.02594972313695655</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07109166793849406</v>
+        <v>0.07376261444732578</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>22</v>
@@ -1959,19 +1959,19 @@
         <v>22863</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>14693</v>
+        <v>14931</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>34007</v>
+        <v>34472</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03444423246689519</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02213535488904935</v>
+        <v>0.02249367179258364</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0512318425395258</v>
+        <v>0.05193298221997</v>
       </c>
     </row>
     <row r="6">
@@ -1988,19 +1988,19 @@
         <v>294692</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>286222</v>
+        <v>285789</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>300816</v>
+        <v>300978</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9512761501248713</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9239351140675869</v>
+        <v>0.9225369972448463</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9710433725288136</v>
+        <v>0.9715678069879954</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>319</v>
@@ -2009,19 +2009,19 @@
         <v>327573</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>316000</v>
+        <v>315433</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>337259</v>
+        <v>336497</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9253588687887007</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.892665793580976</v>
+        <v>0.8910640052670527</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9527186633800739</v>
+        <v>0.9505659372449531</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>586</v>
@@ -2030,19 +2030,19 @@
         <v>622265</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>608074</v>
+        <v>607727</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>634759</v>
+        <v>633150</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9374544264202093</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9160743326226399</v>
+        <v>0.9155515099167442</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9562761011934923</v>
+        <v>0.9538519267047429</v>
       </c>
     </row>
     <row r="7">
@@ -2134,19 +2134,19 @@
         <v>15058</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7914</v>
+        <v>7883</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>26547</v>
+        <v>25512</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06026854543057857</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03167368390640356</v>
+        <v>0.03154958853179374</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1062528674912805</v>
+        <v>0.1021078673457343</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>53</v>
@@ -2155,19 +2155,19 @@
         <v>59211</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>44902</v>
+        <v>46171</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>75169</v>
+        <v>77340</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1522228030926074</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1154354691674515</v>
+        <v>0.1186976897644523</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1932463129099391</v>
+        <v>0.1988276450378911</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>65</v>
@@ -2176,19 +2176,19 @@
         <v>74270</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>57359</v>
+        <v>58024</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>91839</v>
+        <v>93863</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1162588453725042</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08978748496122146</v>
+        <v>0.09082788367972444</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1437614302047272</v>
+        <v>0.1469302022346552</v>
       </c>
     </row>
     <row r="9">
@@ -2205,19 +2205,19 @@
         <v>28815</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>19890</v>
+        <v>19103</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>43186</v>
+        <v>41570</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1153280284602754</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07960618627424237</v>
+        <v>0.07645802843193833</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1728452103975035</v>
+        <v>0.1663806468080323</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>52</v>
@@ -2226,19 +2226,19 @@
         <v>56903</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>42962</v>
+        <v>44848</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>72213</v>
+        <v>71982</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1462873653025064</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1104484236565811</v>
+        <v>0.1152959099242728</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1856472673667473</v>
+        <v>0.1850544138331157</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>77</v>
@@ -2247,19 +2247,19 @@
         <v>85718</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>68429</v>
+        <v>68708</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>103921</v>
+        <v>103907</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1341789506456373</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1071162920134399</v>
+        <v>0.1075527418560218</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1626734345021834</v>
+        <v>0.1626526123645052</v>
       </c>
     </row>
     <row r="10">
@@ -2276,19 +2276,19 @@
         <v>205978</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>190425</v>
+        <v>189820</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>217143</v>
+        <v>218713</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8244034261091461</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7621534116960132</v>
+        <v>0.75973374474558</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8690900121786324</v>
+        <v>0.8753728481643657</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>245</v>
@@ -2297,19 +2297,19 @@
         <v>272865</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>253359</v>
+        <v>255823</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>291539</v>
+        <v>291561</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7014898316048862</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6513428602944717</v>
+        <v>0.657677493740186</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7494981626620199</v>
+        <v>0.7495543110469908</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>430</v>
@@ -2318,19 +2318,19 @@
         <v>478843</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>452630</v>
+        <v>453171</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>500487</v>
+        <v>502345</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7495622039818586</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7085301196792257</v>
+        <v>0.709376534649116</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7834439469849814</v>
+        <v>0.7863523673541787</v>
       </c>
     </row>
     <row r="11">
@@ -2422,19 +2422,19 @@
         <v>23169</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14748</v>
+        <v>14497</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>34654</v>
+        <v>36374</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04140009959390366</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02635255645682084</v>
+        <v>0.02590358745420508</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0619224768128545</v>
+        <v>0.06499493329545651</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>63</v>
@@ -2443,19 +2443,19 @@
         <v>69754</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>53869</v>
+        <v>54005</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>86578</v>
+        <v>87406</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09388439932385256</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07250379418247456</v>
+        <v>0.07268783452829472</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1165283967453074</v>
+        <v>0.1176435140930373</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>83</v>
@@ -2464,19 +2464,19 @@
         <v>92923</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>73994</v>
+        <v>75643</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>112708</v>
+        <v>113347</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07133573773278658</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05680454518144153</v>
+        <v>0.05807037997659724</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08652484652396178</v>
+        <v>0.08701551649876807</v>
       </c>
     </row>
     <row r="13">
@@ -2493,19 +2493,19 @@
         <v>35798</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>24755</v>
+        <v>24491</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>50382</v>
+        <v>49110</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06396628166165427</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04423338333675834</v>
+        <v>0.04376155583048146</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09002643765581538</v>
+        <v>0.08775258083303672</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>67</v>
@@ -2514,19 +2514,19 @@
         <v>72783</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>58337</v>
+        <v>56640</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>91656</v>
+        <v>90763</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09796169023343104</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07851832553004913</v>
+        <v>0.07623425822911185</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1233636188008719</v>
+        <v>0.1221622291704495</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>99</v>
@@ -2535,19 +2535,19 @@
         <v>108581</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>90140</v>
+        <v>88762</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>132409</v>
+        <v>128922</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08335635173259925</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06919955831259772</v>
+        <v>0.06814145227866117</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.101649209468173</v>
+        <v>0.09897223979214088</v>
       </c>
     </row>
     <row r="14">
@@ -2564,19 +2564,19 @@
         <v>500670</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>483917</v>
+        <v>483579</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>514630</v>
+        <v>514774</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.894633618744442</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8646977517011744</v>
+        <v>0.86409459394592</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9195783225516366</v>
+        <v>0.919835544114423</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>564</v>
@@ -2585,19 +2585,19 @@
         <v>600438</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>574699</v>
+        <v>578757</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>620842</v>
+        <v>619559</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8081539104427163</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7735108368886087</v>
+        <v>0.7789730093071955</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8356163290230794</v>
+        <v>0.8338891473275392</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1016</v>
@@ -2606,19 +2606,19 @@
         <v>1101108</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1073333</v>
+        <v>1076362</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1128631</v>
+        <v>1128499</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8453079105346142</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8239850756091881</v>
+        <v>0.826310761424547</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8664369324935739</v>
+        <v>0.8663352958045112</v>
       </c>
     </row>
     <row r="15">
@@ -2948,19 +2948,19 @@
         <v>6379</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2781</v>
+        <v>2490</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14209</v>
+        <v>13186</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01907900440989365</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008318191334927203</v>
+        <v>0.007446631698969116</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04249923605100953</v>
+        <v>0.03944072701243875</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -2969,19 +2969,19 @@
         <v>6851</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2988</v>
+        <v>2668</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13722</v>
+        <v>14103</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01813446440469008</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007910829214665696</v>
+        <v>0.0070618076444374</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03632439240950917</v>
+        <v>0.03733262750170255</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -2990,19 +2990,19 @@
         <v>13229</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7458</v>
+        <v>6945</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22624</v>
+        <v>22806</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.018577929656803</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01047375619488072</v>
+        <v>0.009752580011618843</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03177163529729529</v>
+        <v>0.03202727328977917</v>
       </c>
     </row>
     <row r="5">
@@ -3019,19 +3019,19 @@
         <v>8184</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3188</v>
+        <v>3140</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15383</v>
+        <v>14654</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02447966716811594</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.009535298876187747</v>
+        <v>0.009391573926322122</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04601085338717046</v>
+        <v>0.04383234242390567</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -3040,19 +3040,19 @@
         <v>18386</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11422</v>
+        <v>11133</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28237</v>
+        <v>26906</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04867203226213358</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03023541931260564</v>
+        <v>0.02947195467814948</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07474920391066384</v>
+        <v>0.07122388296042086</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>26</v>
@@ -3061,19 +3061,19 @@
         <v>26571</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>17841</v>
+        <v>17676</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>38642</v>
+        <v>37797</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03731362157913218</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02505388791138894</v>
+        <v>0.02482254081986508</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05426565653186982</v>
+        <v>0.05307825557814825</v>
       </c>
     </row>
     <row r="6">
@@ -3090,19 +3090,19 @@
         <v>319767</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>310144</v>
+        <v>310411</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>326144</v>
+        <v>326464</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9564413284219904</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.927659710683469</v>
+        <v>0.9284554577303331</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9755152366374449</v>
+        <v>0.9764716490398864</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>330</v>
@@ -3111,19 +3111,19 @@
         <v>352525</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>340585</v>
+        <v>342105</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>361428</v>
+        <v>360947</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9331935033331763</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9015857475606618</v>
+        <v>0.9056101712309499</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9567608224895492</v>
+        <v>0.9554890403310452</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>641</v>
@@ -3132,19 +3132,19 @@
         <v>672292</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>658162</v>
+        <v>657977</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>682676</v>
+        <v>683239</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9441084487640649</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9242657618688622</v>
+        <v>0.9240053826767047</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.958690314564031</v>
+        <v>0.9594819250275566</v>
       </c>
     </row>
     <row r="7">
@@ -3236,19 +3236,19 @@
         <v>12376</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7463</v>
+        <v>6914</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>20119</v>
+        <v>19722</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04815749809517712</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02903994847901572</v>
+        <v>0.0269032115376753</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07828339177134262</v>
+        <v>0.07674108154748507</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>25</v>
@@ -3257,19 +3257,19 @@
         <v>33446</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>23012</v>
+        <v>22562</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>49080</v>
+        <v>48416</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08357887714797374</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05750608555137408</v>
+        <v>0.05638204722922903</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1226469329596658</v>
+        <v>0.1209890002515132</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>39</v>
@@ -3278,19 +3278,19 @@
         <v>45822</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>33825</v>
+        <v>33824</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>63242</v>
+        <v>60408</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06972665449426653</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05147023562282173</v>
+        <v>0.05146980877012806</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09623394176835878</v>
+        <v>0.09192181122787628</v>
       </c>
     </row>
     <row r="9">
@@ -3307,19 +3307,19 @@
         <v>20228</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13056</v>
+        <v>13236</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>28924</v>
+        <v>28148</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07871032511197028</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05080308000928478</v>
+        <v>0.05150117403025108</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.112546217801192</v>
+        <v>0.1095267366444027</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>54</v>
@@ -3328,19 +3328,19 @@
         <v>70658</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>53593</v>
+        <v>54481</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>88668</v>
+        <v>90279</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1765696661040572</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1339251707051676</v>
+        <v>0.1361437820251837</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2215754110910657</v>
+        <v>0.2256018143156909</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>78</v>
@@ -3349,19 +3349,19 @@
         <v>90886</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>72922</v>
+        <v>72697</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>112228</v>
+        <v>111110</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1382998579707564</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1109639970983246</v>
+        <v>0.1106215699293762</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1707755897328624</v>
+        <v>0.1690735079979314</v>
       </c>
     </row>
     <row r="10">
@@ -3378,19 +3378,19 @@
         <v>224393</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>214319</v>
+        <v>214185</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>233783</v>
+        <v>233285</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8731321767928526</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8339322201120725</v>
+        <v>0.8334108573840969</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9096683929647535</v>
+        <v>0.9077324190786769</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>222</v>
@@ -3399,19 +3399,19 @@
         <v>296066</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>273382</v>
+        <v>275448</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>314969</v>
+        <v>315270</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.739851456747969</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6831674625971297</v>
+        <v>0.6883291912876885</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7870893764797449</v>
+        <v>0.7878409855010403</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>486</v>
@@ -3420,19 +3420,19 @@
         <v>520459</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>493827</v>
+        <v>496245</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>540570</v>
+        <v>541176</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7919734875349771</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7514480307633644</v>
+        <v>0.7551275847158803</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.822576431800574</v>
+        <v>0.823498588488103</v>
       </c>
     </row>
     <row r="11">
@@ -3524,19 +3524,19 @@
         <v>18755</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11715</v>
+        <v>11986</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>29182</v>
+        <v>29377</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03171685474501226</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01981163887630655</v>
+        <v>0.02026967337181888</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0493500129903854</v>
+        <v>0.0496802614622126</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>31</v>
@@ -3545,19 +3545,19 @@
         <v>40296</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>28815</v>
+        <v>27712</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>55579</v>
+        <v>58165</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05179917906100211</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03704105968757421</v>
+        <v>0.03562282524950214</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07144518551031055</v>
+        <v>0.07476841738048746</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>51</v>
@@ -3566,19 +3566,19 @@
         <v>59051</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>44784</v>
+        <v>45126</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>75653</v>
+        <v>77009</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04312642930725259</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03270677846578283</v>
+        <v>0.03295651142911977</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05525132347850564</v>
+        <v>0.05624112845233348</v>
       </c>
     </row>
     <row r="13">
@@ -3595,19 +3595,19 @@
         <v>28413</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19107</v>
+        <v>19242</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39752</v>
+        <v>39016</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04804893956878022</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03231147811661266</v>
+        <v>0.03254012436656681</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06722552999227387</v>
+        <v>0.0659799914810496</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>72</v>
@@ -3616,19 +3616,19 @@
         <v>89044</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>71215</v>
+        <v>69706</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>111540</v>
+        <v>107686</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1144627876226469</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09154418874805764</v>
+        <v>0.08960407876361308</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1433798561876048</v>
+        <v>0.1384261432647763</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>104</v>
@@ -3637,19 +3637,19 @@
         <v>117457</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>97379</v>
+        <v>97042</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>142351</v>
+        <v>138322</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08578131254577454</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07111832908572178</v>
+        <v>0.07087210858115035</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1039621369807169</v>
+        <v>0.1010192761523449</v>
       </c>
     </row>
     <row r="14">
@@ -3666,19 +3666,19 @@
         <v>544160</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>528893</v>
+        <v>531107</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>555927</v>
+        <v>555383</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9202342056862075</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8944161969723875</v>
+        <v>0.8981595853073381</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9401331539797569</v>
+        <v>0.9392131519191167</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>552</v>
@@ -3687,19 +3687,19 @@
         <v>648591</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>624452</v>
+        <v>626192</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>669670</v>
+        <v>670607</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.833738033316351</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8027084273475535</v>
+        <v>0.8049456857445921</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8608350573615716</v>
+        <v>0.8620397062888182</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1127</v>
@@ -3708,19 +3708,19 @@
         <v>1192751</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1166156</v>
+        <v>1166110</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1218164</v>
+        <v>1216752</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8710922581469729</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8516691790151376</v>
+        <v>0.8516361054120309</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8896517075189228</v>
+        <v>0.8886206140863073</v>
       </c>
     </row>
     <row r="15">
@@ -4050,19 +4050,19 @@
         <v>4080</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1681</v>
+        <v>1455</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8120</v>
+        <v>8988</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01002175738321154</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004129986256032912</v>
+        <v>0.003574647546682274</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01994756870301153</v>
+        <v>0.02207997756288271</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -4071,19 +4071,19 @@
         <v>10860</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6550</v>
+        <v>7147</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15930</v>
+        <v>17075</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02475274995170722</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01492999439879053</v>
+        <v>0.01628902607475201</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03630797974750649</v>
+        <v>0.03891774797736303</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -4092,19 +4092,19 @@
         <v>14940</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9747</v>
+        <v>9577</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21602</v>
+        <v>21297</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.01766290893258793</v>
+        <v>0.01766290893258794</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0115238226501405</v>
+        <v>0.01132260002453126</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02554017786563773</v>
+        <v>0.0251787467772837</v>
       </c>
     </row>
     <row r="5">
@@ -4121,19 +4121,19 @@
         <v>16490</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10759</v>
+        <v>10980</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24881</v>
+        <v>24459</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04050917380111001</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.026428523844354</v>
+        <v>0.02697240692475288</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06111987229717279</v>
+        <v>0.06008435937568058</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>46</v>
@@ -4142,19 +4142,19 @@
         <v>26042</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>19985</v>
+        <v>19576</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>34672</v>
+        <v>33603</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05935748469188322</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04555062395069937</v>
+        <v>0.04461945551102885</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07902678373958109</v>
+        <v>0.07659186899785905</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>71</v>
@@ -4163,19 +4163,19 @@
         <v>42533</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>33468</v>
+        <v>33058</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>52637</v>
+        <v>53301</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.05028603026862143</v>
+        <v>0.05028603026862144</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03956863251380104</v>
+        <v>0.03908431928093069</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06223239446888781</v>
+        <v>0.06301756362429531</v>
       </c>
     </row>
     <row r="6">
@@ -4192,19 +4192,19 @@
         <v>386510</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>377686</v>
+        <v>378067</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>392918</v>
+        <v>392913</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9494690688156785</v>
+        <v>0.9494690688156784</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9277931852772162</v>
+        <v>0.9287295890026607</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.965211034397249</v>
+        <v>0.9651987153013968</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>760</v>
@@ -4213,19 +4213,19 @@
         <v>401832</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>392614</v>
+        <v>392686</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>409130</v>
+        <v>409377</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9158897653564094</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8948789354116146</v>
+        <v>0.8950440887277871</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9325242532777862</v>
+        <v>0.9330867839088124</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1299</v>
@@ -4234,19 +4234,19 @@
         <v>788342</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>777391</v>
+        <v>776655</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>799765</v>
+        <v>799489</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.9320510607987905</v>
+        <v>0.9320510607987906</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.919103467822094</v>
+        <v>0.9182341372494691</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9455564270454703</v>
+        <v>0.9452298981701487</v>
       </c>
     </row>
     <row r="7">
@@ -4338,19 +4338,19 @@
         <v>18372</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12323</v>
+        <v>12586</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>26650</v>
+        <v>26089</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05939686053960597</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03984131060722817</v>
+        <v>0.04069177907120389</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08615844098877125</v>
+        <v>0.0843465480451986</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>120</v>
@@ -4359,19 +4359,19 @@
         <v>65033</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>54050</v>
+        <v>54021</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>76651</v>
+        <v>78260</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1402941929557916</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1166001408745655</v>
+        <v>0.1165388565745321</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1653568193772052</v>
+        <v>0.1688285224863479</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>149</v>
@@ -4380,19 +4380,19 @@
         <v>83405</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>71366</v>
+        <v>70942</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>98576</v>
+        <v>97921</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1079176802159594</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09234038548237956</v>
+        <v>0.09179188918599968</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1275471138850246</v>
+        <v>0.1267001233045951</v>
       </c>
     </row>
     <row r="9">
@@ -4409,19 +4409,19 @@
         <v>31415</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>23706</v>
+        <v>23371</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>41035</v>
+        <v>40906</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1015633943659789</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07664255965708638</v>
+        <v>0.07555734413125012</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1326668384325687</v>
+        <v>0.1322493469636566</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>192</v>
@@ -4430,19 +4430,19 @@
         <v>102705</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>90251</v>
+        <v>89955</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>116361</v>
+        <v>115244</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2215630456432364</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1946957454597267</v>
+        <v>0.1940572214068532</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2510226167712697</v>
+        <v>0.2486142168151259</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>242</v>
@@ -4451,19 +4451,19 @@
         <v>134120</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>118060</v>
+        <v>117155</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>149926</v>
+        <v>149831</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1735371080466067</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1527575598271488</v>
+        <v>0.1515859299735019</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1939891094917234</v>
+        <v>0.1938660661499187</v>
       </c>
     </row>
     <row r="10">
@@ -4480,19 +4480,19 @@
         <v>259525</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>248851</v>
+        <v>249385</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>269795</v>
+        <v>269736</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8390397450944151</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.804531857889597</v>
+        <v>0.8062574990099277</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8722423111045308</v>
+        <v>0.8720523693191792</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>567</v>
@@ -4501,19 +4501,19 @@
         <v>295809</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>279212</v>
+        <v>278751</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>310305</v>
+        <v>310961</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6381427614009718</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6023378978038106</v>
+        <v>0.6013426584672998</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6694137470763435</v>
+        <v>0.6708304674811513</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>945</v>
@@ -4522,19 +4522,19 @@
         <v>555334</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>536389</v>
+        <v>535721</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>574555</v>
+        <v>573580</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7185452117374337</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6940316106061881</v>
+        <v>0.693168105683741</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7434152143293309</v>
+        <v>0.7421540329514047</v>
       </c>
     </row>
     <row r="11">
@@ -4626,19 +4626,19 @@
         <v>22452</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16057</v>
+        <v>15258</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>32533</v>
+        <v>32574</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03134012214110667</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02241315628439647</v>
+        <v>0.02129807332991084</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04541174973525572</v>
+        <v>0.0454699012672603</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>140</v>
@@ -4647,19 +4647,19 @@
         <v>75893</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>63457</v>
+        <v>64347</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>90117</v>
+        <v>88694</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08411218148373552</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07032938146989094</v>
+        <v>0.07131602758313424</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09987669705631555</v>
+        <v>0.09829949093453003</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>175</v>
@@ -4668,19 +4668,19 @@
         <v>98345</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>84612</v>
+        <v>84672</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>115820</v>
+        <v>113713</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06075636014868546</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05227232802115744</v>
+        <v>0.05230952761111263</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07155242381346349</v>
+        <v>0.07025075212489014</v>
       </c>
     </row>
     <row r="13">
@@ -4697,19 +4697,19 @@
         <v>47905</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37796</v>
+        <v>38868</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>59375</v>
+        <v>60810</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.06687015455467211</v>
+        <v>0.06687015455467213</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05275914524580293</v>
+        <v>0.05425581938311361</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08288104337646481</v>
+        <v>0.08488359026293332</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>238</v>
@@ -4718,19 +4718,19 @@
         <v>128747</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>114645</v>
+        <v>112600</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>145980</v>
+        <v>144068</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.142690612953625</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1270611392649633</v>
+        <v>0.1247946113587635</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.161790020257741</v>
+        <v>0.159670519634531</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>313</v>
@@ -4739,19 +4739,19 @@
         <v>176652</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>158654</v>
+        <v>157812</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>197691</v>
+        <v>197347</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1091340471882056</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09801456954327405</v>
+        <v>0.09749481886077785</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1221317676151385</v>
+        <v>0.1219186998022161</v>
       </c>
     </row>
     <row r="14">
@@ -4768,19 +4768,19 @@
         <v>646034</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>631350</v>
+        <v>629708</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>658419</v>
+        <v>658014</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9017897233042212</v>
+        <v>0.9017897233042211</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8812931327235176</v>
+        <v>0.8790009370366278</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9190778979066417</v>
+        <v>0.9185124203668305</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1327</v>
@@ -4789,19 +4789,19 @@
         <v>697642</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>677801</v>
+        <v>678459</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>716749</v>
+        <v>714832</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7731972055626395</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7512075302442467</v>
+        <v>0.751936256970811</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7943736089753084</v>
+        <v>0.792249142780095</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2244</v>
@@ -4810,19 +4810,19 @@
         <v>1343676</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1318491</v>
+        <v>1321089</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1366273</v>
+        <v>1367817</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.830109592663109</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8145503534429703</v>
+        <v>0.8161552845150194</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8440700029159615</v>
+        <v>0.8450237546400647</v>
       </c>
     </row>
     <row r="15">
